--- a/Математические методы принятия решений/Работа на парах/Задача о назначениях/Задача о назначениях.xlsx
+++ b/Математические методы принятия решений/Работа на парах/Задача о назначениях/Задача о назначениях.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirilleroshkin/Documents/GitHub/4kyrs/Математические методы принятия решений/Работа на парах/Задача о назначениях/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A378D88B-2A2C-634A-A683-7E7F989FB0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2181D2-E914-474D-BAE9-E87900731BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="500" windowWidth="25320" windowHeight="16220" xr2:uid="{684B1CCA-4188-8840-9FFD-3320D9142E38}"/>
   </bookViews>
@@ -74,39 +74,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -114,13 +81,46 @@
   </si>
   <si>
     <t>Целевая функция=</t>
+  </si>
+  <si>
+    <t>б1</t>
+  </si>
+  <si>
+    <t>б2</t>
+  </si>
+  <si>
+    <t>б3</t>
+  </si>
+  <si>
+    <t>б4</t>
+  </si>
+  <si>
+    <t>б5</t>
+  </si>
+  <si>
+    <t>а1</t>
+  </si>
+  <si>
+    <t>а2</t>
+  </si>
+  <si>
+    <t>а3</t>
+  </si>
+  <si>
+    <t>а4</t>
+  </si>
+  <si>
+    <t>а5</t>
+  </si>
+  <si>
+    <t>а6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +141,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -178,15 +185,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -513,400 +519,382 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3">
+        <v>73</v>
+      </c>
+      <c r="F2" s="3">
+        <v>72</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3">
+        <v>74</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3">
+        <v>78</v>
+      </c>
+      <c r="E6" s="3">
+        <v>66</v>
+      </c>
+      <c r="F6" s="3">
+        <v>79</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3">
+        <v>67</v>
+      </c>
+      <c r="F7" s="3">
+        <v>78</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f>SUM(B11:F11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" ref="G12:G16" si="0">SUM(B12:F12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <f>SUM(B11:B16)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17:F17" si="1">SUM(C11:C16)</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
-        <v>37</v>
-      </c>
-      <c r="C2" s="5">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5">
-        <v>52</v>
-      </c>
-      <c r="E2" s="5">
-        <v>73</v>
-      </c>
-      <c r="F2" s="5">
-        <v>72</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
-        <v>39</v>
-      </c>
-      <c r="D3" s="5">
-        <v>70</v>
-      </c>
-      <c r="E3" s="5">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5">
-        <v>27</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>49</v>
-      </c>
-      <c r="C5" s="5">
-        <v>35</v>
-      </c>
-      <c r="D5" s="5">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5">
-        <v>35</v>
-      </c>
-      <c r="F5" s="5">
-        <v>74</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>40</v>
-      </c>
-      <c r="C6" s="5">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5">
-        <v>78</v>
-      </c>
-      <c r="E6" s="5">
-        <v>66</v>
-      </c>
-      <c r="F6" s="5">
-        <v>79</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <v>77</v>
-      </c>
-      <c r="C7" s="5">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5">
-        <v>59</v>
-      </c>
-      <c r="E7" s="5">
-        <v>67</v>
-      </c>
-      <c r="F7" s="5">
-        <v>78</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <f>SUM(B11:F11)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" ref="G12:G16" si="0">SUM(B12:F12)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5">
-        <f>SUM(B11:B16)</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
-        <f t="shared" ref="C17:F17" si="1">SUM(C11:C16)</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="1">
         <f>SUMPRODUCT(B2:F7,B11:F16)</f>
         <v>125</v>
       </c>
@@ -915,6 +903,7 @@
   <mergeCells count="1">
     <mergeCell ref="A20:B20"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>